--- a/medicine/Enfance/Cours_préparatoire/Cours_préparatoire.xlsx
+++ b/medicine/Enfance/Cours_préparatoire/Cours_préparatoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cours_pr%C3%A9paratoire</t>
+          <t>Cours_préparatoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Première classe de l'école élémentaire française, le cours préparatoire, en abrégé « CP », est la quatrième année d'instruction obligatoire en France, durant laquelle se poursuit l'apprentissage de la lecture, qui est commencé en maternelle, éventuellement au jardin d'enfant ou garde à domicile, car avant le 1er septembre 2019 la maternelle n'était pas obligatoire.
-Le CP correspond à la première année de cycle 2 (cycle des apprentissages fondamentaux). Malgré cela, jusqu'au 1er septembre 2019 c'était la première année de l'instruction obligatoire. Il s'agit par ailleurs de la première année où la famille de l'enfant peut recevoir l'allocation de rentrée scolaire, sous conditions de revenus[1]. 
+Le CP correspond à la première année de cycle 2 (cycle des apprentissages fondamentaux). Malgré cela, jusqu'au 1er septembre 2019 c'était la première année de l'instruction obligatoire. Il s'agit par ailleurs de la première année où la famille de l'enfant peut recevoir l'allocation de rentrée scolaire, sous conditions de revenus. 
 Les enfants y accèdent au mois de septembre de l'année où ils fêtent leur sixième anniversaire : leur âge à l'entrée de cette classe est donc obligatoirement compris entre 5 ans ½ et 6 ans ½, sauf exception : élève ayant « sauté » la grande section de maternelle en passant directement de la moyenne section au CP (sauter le CP étant déconseillé)[réf. nécessaire], ou élève ayant doublé la petite section de maternelle (il vaut mieux éviter de doubler les autres sections et le CP)[réf. souhaitée]. Par ailleurs les enfants non francophones sont obligatoirement dans leur tranche d'âge, avec si nécessaire une classe d'adaptation (ainsi il n'y a plus, en France, d'élève de 9 ans en CP).[réf. souhaitée]
 Les évaluations nationales concernent la classe de CP. Elles ont pour but d'informer le ministère du niveau des élèves et des classes. Elles sont instaurées à la suite des très mauvais résultats de la France dans les classements internationaux (qui concernent plutôt les adultes ayant achevé leur scolarité)[réf. souhaitée].
 Il est suivi par le cours élémentaire 1re année ou CE1 (entre 7 ans et 8 ans) l'année suivante.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cours_pr%C3%A9paratoire</t>
+          <t>Cours_préparatoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,48 @@
           <t>Programmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Savoir lire et écrire.
-Horaires et matières
-Les élèves du CP bénéficient d'un enseignement multiple et complet de 26 heures hebdomadaires[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cours_préparatoire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cours_pr%C3%A9paratoire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Programmes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Horaires et matières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les élèves du CP bénéficient d'un enseignement multiple et complet de 26 heures hebdomadaires.
 Les activités de lecture et d'écriture sont quotidiennes et durent 2 heures 30 minimum.
 </t>
         </is>
